--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_6_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_6_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.59199806469</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.59199806469</v>
+        <v>1797087.807614872</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22445.61410523157</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22445.61410523157</v>
+        <v>1346736.846313893</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188655587.57459</v>
+        <v>47398144.87808178</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10488.37706875151</v>
+        <v>1062540.13754402</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20465.15357875199</v>
+        <v>2038557.34380178</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30441.93008875243</v>
+        <v>3014574.550059542</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41500.93693018409</v>
+        <v>3931951.303415023</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52559.9437716157</v>
+        <v>4849328.056770504</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62857.58122059787</v>
+        <v>5803463.361380389</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73632.54996090631</v>
+        <v>6773002.275769827</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84330.11362694565</v>
+        <v>7727137.58037971</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95789.04668543446</v>
+        <v>8644514.333735187</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107247.9797439233</v>
+        <v>9561891.087090662</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117739.2991210246</v>
+        <v>10537908.29334842</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128230.618498126</v>
+        <v>11513925.49960619</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>138721.9378752273</v>
+        <v>12489942.70586396</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150180.8709337161</v>
+        <v>13407319.45921944</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161162.4727008787</v>
+        <v>14309292.60279537</v>
       </c>
     </row>
   </sheetData>
